--- a/Tests/1/Test_SubjSingleRun1.xlsx
+++ b/Tests/1/Test_SubjSingleRun1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1219,8 +1219,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="19">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="19">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
